--- a/results/team_combi.xlsx
+++ b/results/team_combi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3839E549-A0B7-4829-B831-A879D936CA89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B822F270-E218-4F84-9899-F6DEED9C8508}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="270" windowWidth="23535" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="2400" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team_all" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Rank</t>
   </si>
@@ -33,26 +33,47 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>TEAM KABASIMA</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神奈川ｼｭｰﾃｨﾝｸﾞｸﾗﾌﾞ</t>
+    <t>神奈川シューティングクラブ</t>
     <rPh sb="0" eb="3">
       <t>カナガワ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ｼﾞｪﾈｼｽﾗｲﾌﾙｸﾗﾌﾞ</t>
+    <t>流星</t>
+    <rPh sb="0" eb="2">
+      <t>リュウセイ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>チームFUJIHIRA</t>
+    <t>ほにゃらら</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>フロッグIKOASA</t>
+    <t>フロッグ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ブルズアイ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ホクリクテーオー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大阪EXSP</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+    <rPh sb="0" eb="5">
+      <t>サカエキタサンジュウシ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1008,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1032,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1043,9 +1064,9 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1054,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1065,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -1076,10 +1097,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1087,10 +1108,32 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/results/team_combi.xlsx
+++ b/results/team_combi.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B822F270-E218-4F84-9899-F6DEED9C8508}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83D3E9-A52E-4021-B76D-0FC58785672B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="2400" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="1215" windowWidth="21600" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team_all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Rank</t>
   </si>
@@ -40,40 +50,11 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>流星</t>
-    <rPh sb="0" eb="2">
-      <t>リュウセイ</t>
-    </rPh>
+    <t>AAA</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ほにゃらら</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>フロッグ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ブルズアイ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ホクリクテーオー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大阪EXSP</t>
-    <rPh sb="0" eb="2">
-      <t>オオサカ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>栄北三銃士</t>
-    <rPh sb="0" eb="5">
-      <t>サカエキタサンジュウシ</t>
-    </rPh>
+    <t>スターチス</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1032,7 +1013,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1053,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>3600</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1064,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>3599</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1075,66 +1056,26 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>3598</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/results/team_combi.xlsx
+++ b/results/team_combi.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A83D3E9-A52E-4021-B76D-0FC58785672B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5896FBD-D3D1-4140-829F-8D6DBF1DE576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="1215" windowWidth="21600" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="3525" windowWidth="9600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team_all" sheetId="1" r:id="rId1"/>
+    <sheet name="team_list" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Rank</t>
   </si>
@@ -50,11 +49,152 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>AAA</t>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>チームGOGO！</t>
+  </si>
+  <si>
+    <t>黒い三連星</t>
+  </si>
+  <si>
+    <t>次郎長</t>
+  </si>
+  <si>
+    <t>大政</t>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
+  </si>
+  <si>
+    <t>チームＦＵＪＩＨＩＲＡ</t>
+  </si>
+  <si>
+    <t>株式会社　銀座銃砲店</t>
+  </si>
+  <si>
+    <t>大阪EXSP</t>
+  </si>
+  <si>
+    <t>Back Fire</t>
+  </si>
+  <si>
+    <t>AVENGERS</t>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+  </si>
+  <si>
+    <t>京都ポイント</t>
+  </si>
+  <si>
+    <t>神奈川シューティングクラブ</t>
+  </si>
+  <si>
+    <t>St.Paul's</t>
+  </si>
+  <si>
+    <t>BEC</t>
+  </si>
+  <si>
+    <t>ブルズアイ</t>
+  </si>
+  <si>
+    <t>KU SHOOTING</t>
+  </si>
+  <si>
+    <t>オール日大</t>
+  </si>
+  <si>
+    <t>よかとこ九州隊</t>
+  </si>
+  <si>
+    <t>NRT</t>
+  </si>
+  <si>
+    <t>オールドタイマー</t>
+  </si>
+  <si>
+    <t>チームＳＯＳ</t>
+  </si>
+  <si>
+    <t>ジェネシスライフルクラブＢ</t>
+  </si>
+  <si>
+    <t>スターチス</t>
+  </si>
+  <si>
+    <t>ホーネット</t>
+  </si>
+  <si>
+    <t>TEAM KABASHIMA</t>
+  </si>
+  <si>
+    <t>フロッグ</t>
+  </si>
+  <si>
+    <t>おぉ明治</t>
+  </si>
+  <si>
+    <t>赤門射撃会</t>
+  </si>
+  <si>
+    <t>トリプルA</t>
+  </si>
+  <si>
+    <t>秋のモンブラン</t>
+  </si>
+  <si>
+    <t>ホクリクテーオー</t>
+  </si>
+  <si>
+    <t>アフターファイブ</t>
+  </si>
+  <si>
+    <t>Team Name</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>スターチス</t>
+    <t>フロッグ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <rPh sb="0" eb="2">
+      <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>オール日大</t>
+    <rPh sb="3" eb="5">
+      <t>ニチダイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+    <rPh sb="0" eb="1">
+      <t>サカエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サンジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ホクリクテーオー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ホーネット</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -648,13 +788,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1013,7 +1154,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1034,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3600</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1045,10 +1186,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3599</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1056,30 +1197,264 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3598</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C6" s="1"/>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C7" s="1"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C8" s="1"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C9" s="1"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0A1220-4B75-46CA-A0CC-C66F714F8069}">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/team_combi.xlsx
+++ b/results/team_combi.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5896FBD-D3D1-4140-829F-8D6DBF1DE576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AA340-10B7-4D75-99DD-14DEBDC8F99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="3525" windowWidth="9600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="555" windowWidth="20655" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team_all" sheetId="1" r:id="rId1"/>
     <sheet name="team_list" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -170,31 +175,22 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>オール日大</t>
-    <rPh sb="3" eb="5">
-      <t>ニチダイ</t>
+    <t>ホーネット</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>unicorn</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ブルズアイ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大阪EXSP</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>栄北三銃士</t>
-    <rPh sb="0" eb="1">
-      <t>サカエ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サンジュウシ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ホクリクテーオー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ホーネット</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1154,7 +1150,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1175,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1186,10 +1182,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1197,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1208,10 +1204,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1219,10 +1215,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1230,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
@@ -1244,12 +1240,12 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1269,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0A1220-4B75-46CA-A0CC-C66F714F8069}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/results/team_combi.xlsx
+++ b/results/team_combi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870AA340-10B7-4D75-99DD-14DEBDC8F99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85518190-C37D-4F54-AE42-4D5FEA3F2548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="555" windowWidth="20655" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="675" windowWidth="21600" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team_all" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Rank</t>
   </si>
@@ -160,37 +160,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>フロッグ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ほにゃらら</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>流星</t>
-    <rPh sb="0" eb="2">
-      <t>リュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ホーネット</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>unicorn</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ブルズアイ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大阪EXSP</t>
-    <rPh sb="0" eb="2">
-      <t>オオサカ</t>
-    </rPh>
+    <t>AAA</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -851,9 +821,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -891,7 +861,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -997,7 +967,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1139,7 +1109,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1150,7 +1120,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1171,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1182,77 +1152,26 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
@@ -1265,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0A1220-4B75-46CA-A0CC-C66F714F8069}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/results/team_combi.xlsx
+++ b/results/team_combi.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85518190-C37D-4F54-AE42-4D5FEA3F2548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA90442C-9656-4017-99D4-E2E02B02DB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="675" windowWidth="21600" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21120" yWindow="1680" windowWidth="14940" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team_all" sheetId="1" r:id="rId1"/>
     <sheet name="team_list" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="総合ポイント">_xlfn.LAMBDA(_xlpm.a, IF(SUM(_xlpm.a)&gt;0,SUM(_xlpm.a),""))</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Rank</t>
   </si>
@@ -44,6 +47,119 @@
   </si>
   <si>
     <t>Team</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>チームGOGO！</t>
+  </si>
+  <si>
+    <t>黒い三連星</t>
+  </si>
+  <si>
+    <t>次郎長</t>
+  </si>
+  <si>
+    <t>大政</t>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
+  </si>
+  <si>
+    <t>チームＦＵＪＩＨＩＲＡ</t>
+  </si>
+  <si>
+    <t>株式会社　銀座銃砲店</t>
+  </si>
+  <si>
+    <t>大阪EXSP</t>
+  </si>
+  <si>
+    <t>Back Fire</t>
+  </si>
+  <si>
+    <t>AVENGERS</t>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+  </si>
+  <si>
+    <t>京都ポイント</t>
+  </si>
+  <si>
+    <t>神奈川シューティングクラブ</t>
+  </si>
+  <si>
+    <t>St.Paul's</t>
+  </si>
+  <si>
+    <t>BEC</t>
+  </si>
+  <si>
+    <t>ブルズアイ</t>
+  </si>
+  <si>
+    <t>KU SHOOTING</t>
+  </si>
+  <si>
+    <t>オール日大</t>
+  </si>
+  <si>
+    <t>よかとこ九州隊</t>
+  </si>
+  <si>
+    <t>NRT</t>
+  </si>
+  <si>
+    <t>オールドタイマー</t>
+  </si>
+  <si>
+    <t>チームＳＯＳ</t>
+  </si>
+  <si>
+    <t>ジェネシスライフルクラブＢ</t>
+  </si>
+  <si>
+    <t>スターチス</t>
+  </si>
+  <si>
+    <t>ホーネット</t>
+  </si>
+  <si>
+    <t>TEAM KABASHIMA</t>
+  </si>
+  <si>
+    <t>フロッグ</t>
+  </si>
+  <si>
+    <t>おぉ明治</t>
+  </si>
+  <si>
+    <t>赤門射撃会</t>
+  </si>
+  <si>
+    <t>トリプルA</t>
+  </si>
+  <si>
+    <t>秋のモンブラン</t>
+  </si>
+  <si>
+    <t>ホクリクテーオー</t>
+  </si>
+  <si>
+    <t>アフターファイブ</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>unicorn</t>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -51,116 +167,6 @@
     <rPh sb="0" eb="3">
       <t>カナガワ</t>
     </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>流星</t>
-  </si>
-  <si>
-    <t>チームGOGO！</t>
-  </si>
-  <si>
-    <t>黒い三連星</t>
-  </si>
-  <si>
-    <t>次郎長</t>
-  </si>
-  <si>
-    <t>大政</t>
-  </si>
-  <si>
-    <t>ほにゃらら</t>
-  </si>
-  <si>
-    <t>チームＦＵＪＩＨＩＲＡ</t>
-  </si>
-  <si>
-    <t>株式会社　銀座銃砲店</t>
-  </si>
-  <si>
-    <t>大阪EXSP</t>
-  </si>
-  <si>
-    <t>Back Fire</t>
-  </si>
-  <si>
-    <t>AVENGERS</t>
-  </si>
-  <si>
-    <t>栄北三銃士</t>
-  </si>
-  <si>
-    <t>京都ポイント</t>
-  </si>
-  <si>
-    <t>神奈川シューティングクラブ</t>
-  </si>
-  <si>
-    <t>St.Paul's</t>
-  </si>
-  <si>
-    <t>BEC</t>
-  </si>
-  <si>
-    <t>ブルズアイ</t>
-  </si>
-  <si>
-    <t>KU SHOOTING</t>
-  </si>
-  <si>
-    <t>オール日大</t>
-  </si>
-  <si>
-    <t>よかとこ九州隊</t>
-  </si>
-  <si>
-    <t>NRT</t>
-  </si>
-  <si>
-    <t>オールドタイマー</t>
-  </si>
-  <si>
-    <t>チームＳＯＳ</t>
-  </si>
-  <si>
-    <t>ジェネシスライフルクラブＢ</t>
-  </si>
-  <si>
-    <t>スターチス</t>
-  </si>
-  <si>
-    <t>ホーネット</t>
-  </si>
-  <si>
-    <t>TEAM KABASHIMA</t>
-  </si>
-  <si>
-    <t>フロッグ</t>
-  </si>
-  <si>
-    <t>おぉ明治</t>
-  </si>
-  <si>
-    <t>赤門射撃会</t>
-  </si>
-  <si>
-    <t>トリプルA</t>
-  </si>
-  <si>
-    <t>秋のモンブラン</t>
-  </si>
-  <si>
-    <t>ホクリクテーオー</t>
-  </si>
-  <si>
-    <t>アフターファイブ</t>
-  </si>
-  <si>
-    <t>Team Name</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>AAA</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1120,7 +1126,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1141,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1152,20 +1158,55 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C5" s="1"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C6" s="1"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C7" s="1"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
@@ -1195,177 +1236,177 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/results/team_combi.xlsx
+++ b/results/team_combi.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA90442C-9656-4017-99D4-E2E02B02DB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC8008-A27E-4DD2-861F-00AAE5851557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21120" yWindow="1680" windowWidth="14940" windowHeight="17610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="4305" windowWidth="14565" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team_all" sheetId="1" r:id="rId1"/>
     <sheet name="team_list" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="総合ポイント">_xlfn.LAMBDA(_xlpm.a, IF(SUM(_xlpm.a)&gt;0,SUM(_xlpm.a),""))</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Rank</t>
   </si>
@@ -47,119 +44,6 @@
   </si>
   <si>
     <t>Team</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>流星</t>
-  </si>
-  <si>
-    <t>チームGOGO！</t>
-  </si>
-  <si>
-    <t>黒い三連星</t>
-  </si>
-  <si>
-    <t>次郎長</t>
-  </si>
-  <si>
-    <t>大政</t>
-  </si>
-  <si>
-    <t>ほにゃらら</t>
-  </si>
-  <si>
-    <t>チームＦＵＪＩＨＩＲＡ</t>
-  </si>
-  <si>
-    <t>株式会社　銀座銃砲店</t>
-  </si>
-  <si>
-    <t>大阪EXSP</t>
-  </si>
-  <si>
-    <t>Back Fire</t>
-  </si>
-  <si>
-    <t>AVENGERS</t>
-  </si>
-  <si>
-    <t>栄北三銃士</t>
-  </si>
-  <si>
-    <t>京都ポイント</t>
-  </si>
-  <si>
-    <t>神奈川シューティングクラブ</t>
-  </si>
-  <si>
-    <t>St.Paul's</t>
-  </si>
-  <si>
-    <t>BEC</t>
-  </si>
-  <si>
-    <t>ブルズアイ</t>
-  </si>
-  <si>
-    <t>KU SHOOTING</t>
-  </si>
-  <si>
-    <t>オール日大</t>
-  </si>
-  <si>
-    <t>よかとこ九州隊</t>
-  </si>
-  <si>
-    <t>NRT</t>
-  </si>
-  <si>
-    <t>オールドタイマー</t>
-  </si>
-  <si>
-    <t>チームＳＯＳ</t>
-  </si>
-  <si>
-    <t>ジェネシスライフルクラブＢ</t>
-  </si>
-  <si>
-    <t>スターチス</t>
-  </si>
-  <si>
-    <t>ホーネット</t>
-  </si>
-  <si>
-    <t>TEAM KABASHIMA</t>
-  </si>
-  <si>
-    <t>フロッグ</t>
-  </si>
-  <si>
-    <t>おぉ明治</t>
-  </si>
-  <si>
-    <t>赤門射撃会</t>
-  </si>
-  <si>
-    <t>トリプルA</t>
-  </si>
-  <si>
-    <t>秋のモンブラン</t>
-  </si>
-  <si>
-    <t>ホクリクテーオー</t>
-  </si>
-  <si>
-    <t>アフターファイブ</t>
-  </si>
-  <si>
-    <t>Team Name</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>unicorn</t>
-  </si>
-  <si>
-    <t>ほにゃらら</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -167,6 +51,116 @@
     <rPh sb="0" eb="3">
       <t>カナガワ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>流星</t>
+  </si>
+  <si>
+    <t>チームGOGO！</t>
+  </si>
+  <si>
+    <t>黒い三連星</t>
+  </si>
+  <si>
+    <t>次郎長</t>
+  </si>
+  <si>
+    <t>大政</t>
+  </si>
+  <si>
+    <t>ほにゃらら</t>
+  </si>
+  <si>
+    <t>チームＦＵＪＩＨＩＲＡ</t>
+  </si>
+  <si>
+    <t>株式会社　銀座銃砲店</t>
+  </si>
+  <si>
+    <t>大阪EXSP</t>
+  </si>
+  <si>
+    <t>Back Fire</t>
+  </si>
+  <si>
+    <t>AVENGERS</t>
+  </si>
+  <si>
+    <t>栄北三銃士</t>
+  </si>
+  <si>
+    <t>京都ポイント</t>
+  </si>
+  <si>
+    <t>神奈川シューティングクラブ</t>
+  </si>
+  <si>
+    <t>St.Paul's</t>
+  </si>
+  <si>
+    <t>BEC</t>
+  </si>
+  <si>
+    <t>ブルズアイ</t>
+  </si>
+  <si>
+    <t>KU SHOOTING</t>
+  </si>
+  <si>
+    <t>オール日大</t>
+  </si>
+  <si>
+    <t>よかとこ九州隊</t>
+  </si>
+  <si>
+    <t>NRT</t>
+  </si>
+  <si>
+    <t>オールドタイマー</t>
+  </si>
+  <si>
+    <t>チームＳＯＳ</t>
+  </si>
+  <si>
+    <t>ジェネシスライフルクラブＢ</t>
+  </si>
+  <si>
+    <t>スターチス</t>
+  </si>
+  <si>
+    <t>ホーネット</t>
+  </si>
+  <si>
+    <t>TEAM KABASHIMA</t>
+  </si>
+  <si>
+    <t>フロッグ</t>
+  </si>
+  <si>
+    <t>おぉ明治</t>
+  </si>
+  <si>
+    <t>赤門射撃会</t>
+  </si>
+  <si>
+    <t>トリプルA</t>
+  </si>
+  <si>
+    <t>秋のモンブラン</t>
+  </si>
+  <si>
+    <t>ホクリクテーオー</t>
+  </si>
+  <si>
+    <t>アフターファイブ</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>フロッグ</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1126,7 +1120,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1147,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1158,55 +1152,20 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
@@ -1236,177 +1195,177 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/results/team_combi.xlsx
+++ b/results/team_combi.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\Seiichi-Ai\クラブ対抗戦\賞状印刷\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC8008-A27E-4DD2-861F-00AAE5851557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1196E86A-13A3-4C21-9A31-D75547254399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="4305" windowWidth="14565" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9525" yWindow="1185" windowWidth="20370" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="team_all" sheetId="1" r:id="rId1"/>
     <sheet name="team_list" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="団体順位">_xlfn.LAMBDA(_xlpm.n,_xlpm.a,IFERROR(RANK(_xlpm.n,_xlpm.a),""))</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Rank</t>
   </si>
@@ -47,13 +50,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>神奈川シューティングクラブ</t>
-    <rPh sb="0" eb="3">
-      <t>カナガワ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>流星</t>
   </si>
   <si>
@@ -160,8 +156,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>フロッグ</t>
-    <phoneticPr fontId="18"/>
+    <t>unicorn</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1115,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1141,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1152,20 +1147,55 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>39</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C5" s="1"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C6" s="1"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C7" s="1"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
@@ -1195,177 +1225,177 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
